--- a/data/healthdata50.xlsx
+++ b/data/healthdata50.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lalyman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lalyman/Downloads/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882B3C8-E97B-E241-88CE-2BF33C9A0C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8E14B-EF49-CE41-ACB5-F211C6AD5EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="43060" windowHeight="22980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
